--- a/data/BTS/TRPT/TVT_historical - Rural - Quarterly.xlsx
+++ b/data/BTS/TRPT/TVT_historical - Rural - Quarterly.xlsx
@@ -4,7 +4,7 @@
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="R" sheetId="1" state="visible" r:id="rId1"/>
@@ -12,407 +12,6 @@
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
-</file>
-
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="132">
-  <si>
-    <t>1990-Q1</t>
-  </si>
-  <si>
-    <t>1990-Q2</t>
-  </si>
-  <si>
-    <t>1990-Q3</t>
-  </si>
-  <si>
-    <t>1990-Q4</t>
-  </si>
-  <si>
-    <t>1991-Q1</t>
-  </si>
-  <si>
-    <t>1991-Q2</t>
-  </si>
-  <si>
-    <t>1991-Q3</t>
-  </si>
-  <si>
-    <t>1991-Q4</t>
-  </si>
-  <si>
-    <t>1992-Q1</t>
-  </si>
-  <si>
-    <t>1992-Q2</t>
-  </si>
-  <si>
-    <t>1992-Q3</t>
-  </si>
-  <si>
-    <t>1992-Q4</t>
-  </si>
-  <si>
-    <t>1993-Q1</t>
-  </si>
-  <si>
-    <t>1993-Q2</t>
-  </si>
-  <si>
-    <t>1993-Q3</t>
-  </si>
-  <si>
-    <t>1993-Q4</t>
-  </si>
-  <si>
-    <t>1994-Q1</t>
-  </si>
-  <si>
-    <t>1994-Q2</t>
-  </si>
-  <si>
-    <t>1994-Q3</t>
-  </si>
-  <si>
-    <t>1994-Q4</t>
-  </si>
-  <si>
-    <t>1995-Q1</t>
-  </si>
-  <si>
-    <t>1995-Q2</t>
-  </si>
-  <si>
-    <t>1995-Q3</t>
-  </si>
-  <si>
-    <t>1995-Q4</t>
-  </si>
-  <si>
-    <t>1996-Q1</t>
-  </si>
-  <si>
-    <t>1996-Q2</t>
-  </si>
-  <si>
-    <t>1996-Q3</t>
-  </si>
-  <si>
-    <t>1996-Q4</t>
-  </si>
-  <si>
-    <t>1997-Q1</t>
-  </si>
-  <si>
-    <t>1997-Q2</t>
-  </si>
-  <si>
-    <t>1997-Q3</t>
-  </si>
-  <si>
-    <t>1997-Q4</t>
-  </si>
-  <si>
-    <t>1998-Q1</t>
-  </si>
-  <si>
-    <t>1998-Q2</t>
-  </si>
-  <si>
-    <t>1998-Q3</t>
-  </si>
-  <si>
-    <t>1998-Q4</t>
-  </si>
-  <si>
-    <t>1999-Q1</t>
-  </si>
-  <si>
-    <t>1999-Q2</t>
-  </si>
-  <si>
-    <t>1999-Q3</t>
-  </si>
-  <si>
-    <t>1999-Q4</t>
-  </si>
-  <si>
-    <t>2000-Q1</t>
-  </si>
-  <si>
-    <t>2000-Q2</t>
-  </si>
-  <si>
-    <t>2000-Q3</t>
-  </si>
-  <si>
-    <t>2000-Q4</t>
-  </si>
-  <si>
-    <t>2001-Q1</t>
-  </si>
-  <si>
-    <t>2001-Q2</t>
-  </si>
-  <si>
-    <t>2001-Q3</t>
-  </si>
-  <si>
-    <t>2001-Q4</t>
-  </si>
-  <si>
-    <t>2002-Q1</t>
-  </si>
-  <si>
-    <t>2002-Q2</t>
-  </si>
-  <si>
-    <t>2002-Q3</t>
-  </si>
-  <si>
-    <t>2002-Q4</t>
-  </si>
-  <si>
-    <t>2003-Q1</t>
-  </si>
-  <si>
-    <t>2003-Q2</t>
-  </si>
-  <si>
-    <t>2003-Q3</t>
-  </si>
-  <si>
-    <t>2003-Q4</t>
-  </si>
-  <si>
-    <t>2004-Q1</t>
-  </si>
-  <si>
-    <t>2004-Q2</t>
-  </si>
-  <si>
-    <t>2004-Q3</t>
-  </si>
-  <si>
-    <t>2004-Q4</t>
-  </si>
-  <si>
-    <t>2005-Q1</t>
-  </si>
-  <si>
-    <t>2005-Q2</t>
-  </si>
-  <si>
-    <t>2005-Q3</t>
-  </si>
-  <si>
-    <t>2005-Q4</t>
-  </si>
-  <si>
-    <t>2006-Q1</t>
-  </si>
-  <si>
-    <t>2006-Q2</t>
-  </si>
-  <si>
-    <t>2006-Q3</t>
-  </si>
-  <si>
-    <t>2006-Q4</t>
-  </si>
-  <si>
-    <t>2007-Q1</t>
-  </si>
-  <si>
-    <t>2007-Q2</t>
-  </si>
-  <si>
-    <t>2007-Q3</t>
-  </si>
-  <si>
-    <t>2007-Q4</t>
-  </si>
-  <si>
-    <t>2008-Q1</t>
-  </si>
-  <si>
-    <t>2008-Q2</t>
-  </si>
-  <si>
-    <t>2008-Q3</t>
-  </si>
-  <si>
-    <t>2008-Q4</t>
-  </si>
-  <si>
-    <t>2009-Q1</t>
-  </si>
-  <si>
-    <t>2009-Q2</t>
-  </si>
-  <si>
-    <t>2009-Q3</t>
-  </si>
-  <si>
-    <t>2009-Q4</t>
-  </si>
-  <si>
-    <t>2010-Q1</t>
-  </si>
-  <si>
-    <t>2010-Q2</t>
-  </si>
-  <si>
-    <t>2010-Q3</t>
-  </si>
-  <si>
-    <t>2010-Q4</t>
-  </si>
-  <si>
-    <t>2011-Q1</t>
-  </si>
-  <si>
-    <t>2011-Q2</t>
-  </si>
-  <si>
-    <t>2011-Q3</t>
-  </si>
-  <si>
-    <t>2011-Q4</t>
-  </si>
-  <si>
-    <t>2012-Q1</t>
-  </si>
-  <si>
-    <t>2012-Q2</t>
-  </si>
-  <si>
-    <t>2012-Q3</t>
-  </si>
-  <si>
-    <t>2012-Q4</t>
-  </si>
-  <si>
-    <t>2013-Q1</t>
-  </si>
-  <si>
-    <t>2013-Q2</t>
-  </si>
-  <si>
-    <t>2013-Q3</t>
-  </si>
-  <si>
-    <t>2013-Q4</t>
-  </si>
-  <si>
-    <t>2014-Q1</t>
-  </si>
-  <si>
-    <t>2014-Q2</t>
-  </si>
-  <si>
-    <t>2014-Q3</t>
-  </si>
-  <si>
-    <t>2014-Q4</t>
-  </si>
-  <si>
-    <t>2015-Q1</t>
-  </si>
-  <si>
-    <t>2015-Q2</t>
-  </si>
-  <si>
-    <t>2015-Q3</t>
-  </si>
-  <si>
-    <t>2015-Q4</t>
-  </si>
-  <si>
-    <t>2016-Q1</t>
-  </si>
-  <si>
-    <t>2016-Q2</t>
-  </si>
-  <si>
-    <t>2016-Q3</t>
-  </si>
-  <si>
-    <t>2016-Q4</t>
-  </si>
-  <si>
-    <t>2017-Q1</t>
-  </si>
-  <si>
-    <t>2017-Q2</t>
-  </si>
-  <si>
-    <t>2017-Q3</t>
-  </si>
-  <si>
-    <t>2017-Q4</t>
-  </si>
-  <si>
-    <t>2018-Q1</t>
-  </si>
-  <si>
-    <t>2018-Q2</t>
-  </si>
-  <si>
-    <t>2018-Q3</t>
-  </si>
-  <si>
-    <t>2018-Q4</t>
-  </si>
-  <si>
-    <t>2019-Q1</t>
-  </si>
-  <si>
-    <t>2019-Q2</t>
-  </si>
-  <si>
-    <t>2019-Q3</t>
-  </si>
-  <si>
-    <t>2019-Q4</t>
-  </si>
-  <si>
-    <t>2020-Q1</t>
-  </si>
-  <si>
-    <t>2020-Q2</t>
-  </si>
-  <si>
-    <t>2020-Q3</t>
-  </si>
-  <si>
-    <t>2020-Q4</t>
-  </si>
-  <si>
-    <t>2021-Q1</t>
-  </si>
-  <si>
-    <t>2021-Q2</t>
-  </si>
-  <si>
-    <t>2021-Q3</t>
-  </si>
-  <si>
-    <t>2021-Q4</t>
-  </si>
-  <si>
-    <t>Interstate</t>
-  </si>
-  <si>
-    <t>Other Arterial</t>
-  </si>
-  <si>
-    <t>Other than</t>
-  </si>
-  <si>
-    <t>All Systems</t>
-  </si>
-</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -767,395 +366,653 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:129">
-      <c r="B1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="P1" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="Q1" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="R1" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="S1" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="T1" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="U1" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="V1" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="W1" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="X1" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="Y1" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="Z1" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="AA1" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="AB1" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="AC1" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="AD1" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="AE1" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="AF1" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="AG1" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="AH1" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="AI1" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="AJ1" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="AK1" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="AL1" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="AM1" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="AN1" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="AO1" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="AP1" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="AQ1" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="AR1" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="AS1" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="AT1" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="AU1" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="AV1" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="AW1" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="AX1" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="AY1" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="AZ1" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="BA1" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="BB1" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="BC1" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="BD1" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="BE1" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="BF1" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="BG1" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="BH1" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="BI1" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="BJ1" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="BK1" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="BL1" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="BM1" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="BN1" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="BO1" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="BP1" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="BQ1" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="BR1" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="BS1" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="BT1" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="BU1" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="BV1" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="BW1" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="BX1" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="BY1" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="BZ1" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="CA1" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="CB1" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="CC1" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="CD1" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="CE1" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="CF1" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="CG1" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="CH1" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="CI1" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="CJ1" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="CK1" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="CL1" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="CM1" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="CN1" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="CO1" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="CP1" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="CQ1" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="CR1" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="CS1" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="CT1" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="CU1" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="CV1" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="CW1" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="CX1" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="CY1" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="CZ1" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="DA1" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="DB1" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="DC1" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="DD1" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="DE1" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="DF1" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="DG1" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="DH1" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="DI1" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="DJ1" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="DK1" s="1" t="s">
-        <v>113</v>
-      </c>
-      <c r="DL1" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="DM1" s="1" t="s">
-        <v>115</v>
-      </c>
-      <c r="DN1" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="DO1" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="DP1" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="DQ1" s="1" t="s">
-        <v>119</v>
-      </c>
-      <c r="DR1" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="DS1" s="1" t="s">
-        <v>121</v>
-      </c>
-      <c r="DT1" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="DU1" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="DV1" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="DW1" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="DX1" s="1" t="s">
-        <v>126</v>
-      </c>
-      <c r="DY1" s="1" t="s">
-        <v>127</v>
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>1990-Q1</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>1990-Q2</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>1990-Q3</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>1990-Q4</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>1991-Q1</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>1991-Q2</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>1991-Q3</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>1991-Q4</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>1992-Q1</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>1992-Q2</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>1992-Q3</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>1992-Q4</t>
+        </is>
+      </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>1993-Q1</t>
+        </is>
+      </c>
+      <c r="O1" s="1" t="inlineStr">
+        <is>
+          <t>1993-Q2</t>
+        </is>
+      </c>
+      <c r="P1" s="1" t="inlineStr">
+        <is>
+          <t>1993-Q3</t>
+        </is>
+      </c>
+      <c r="Q1" s="1" t="inlineStr">
+        <is>
+          <t>1993-Q4</t>
+        </is>
+      </c>
+      <c r="R1" s="1" t="inlineStr">
+        <is>
+          <t>1994-Q1</t>
+        </is>
+      </c>
+      <c r="S1" s="1" t="inlineStr">
+        <is>
+          <t>1994-Q2</t>
+        </is>
+      </c>
+      <c r="T1" s="1" t="inlineStr">
+        <is>
+          <t>1994-Q3</t>
+        </is>
+      </c>
+      <c r="U1" s="1" t="inlineStr">
+        <is>
+          <t>1994-Q4</t>
+        </is>
+      </c>
+      <c r="V1" s="1" t="inlineStr">
+        <is>
+          <t>1995-Q1</t>
+        </is>
+      </c>
+      <c r="W1" s="1" t="inlineStr">
+        <is>
+          <t>1995-Q2</t>
+        </is>
+      </c>
+      <c r="X1" s="1" t="inlineStr">
+        <is>
+          <t>1995-Q3</t>
+        </is>
+      </c>
+      <c r="Y1" s="1" t="inlineStr">
+        <is>
+          <t>1995-Q4</t>
+        </is>
+      </c>
+      <c r="Z1" s="1" t="inlineStr">
+        <is>
+          <t>1996-Q1</t>
+        </is>
+      </c>
+      <c r="AA1" s="1" t="inlineStr">
+        <is>
+          <t>1996-Q2</t>
+        </is>
+      </c>
+      <c r="AB1" s="1" t="inlineStr">
+        <is>
+          <t>1996-Q3</t>
+        </is>
+      </c>
+      <c r="AC1" s="1" t="inlineStr">
+        <is>
+          <t>1996-Q4</t>
+        </is>
+      </c>
+      <c r="AD1" s="1" t="inlineStr">
+        <is>
+          <t>1997-Q1</t>
+        </is>
+      </c>
+      <c r="AE1" s="1" t="inlineStr">
+        <is>
+          <t>1997-Q2</t>
+        </is>
+      </c>
+      <c r="AF1" s="1" t="inlineStr">
+        <is>
+          <t>1997-Q3</t>
+        </is>
+      </c>
+      <c r="AG1" s="1" t="inlineStr">
+        <is>
+          <t>1997-Q4</t>
+        </is>
+      </c>
+      <c r="AH1" s="1" t="inlineStr">
+        <is>
+          <t>1998-Q1</t>
+        </is>
+      </c>
+      <c r="AI1" s="1" t="inlineStr">
+        <is>
+          <t>1998-Q2</t>
+        </is>
+      </c>
+      <c r="AJ1" s="1" t="inlineStr">
+        <is>
+          <t>1998-Q3</t>
+        </is>
+      </c>
+      <c r="AK1" s="1" t="inlineStr">
+        <is>
+          <t>1998-Q4</t>
+        </is>
+      </c>
+      <c r="AL1" s="1" t="inlineStr">
+        <is>
+          <t>1999-Q1</t>
+        </is>
+      </c>
+      <c r="AM1" s="1" t="inlineStr">
+        <is>
+          <t>1999-Q2</t>
+        </is>
+      </c>
+      <c r="AN1" s="1" t="inlineStr">
+        <is>
+          <t>1999-Q3</t>
+        </is>
+      </c>
+      <c r="AO1" s="1" t="inlineStr">
+        <is>
+          <t>1999-Q4</t>
+        </is>
+      </c>
+      <c r="AP1" s="1" t="inlineStr">
+        <is>
+          <t>2000-Q1</t>
+        </is>
+      </c>
+      <c r="AQ1" s="1" t="inlineStr">
+        <is>
+          <t>2000-Q2</t>
+        </is>
+      </c>
+      <c r="AR1" s="1" t="inlineStr">
+        <is>
+          <t>2000-Q3</t>
+        </is>
+      </c>
+      <c r="AS1" s="1" t="inlineStr">
+        <is>
+          <t>2000-Q4</t>
+        </is>
+      </c>
+      <c r="AT1" s="1" t="inlineStr">
+        <is>
+          <t>2001-Q1</t>
+        </is>
+      </c>
+      <c r="AU1" s="1" t="inlineStr">
+        <is>
+          <t>2001-Q2</t>
+        </is>
+      </c>
+      <c r="AV1" s="1" t="inlineStr">
+        <is>
+          <t>2001-Q3</t>
+        </is>
+      </c>
+      <c r="AW1" s="1" t="inlineStr">
+        <is>
+          <t>2001-Q4</t>
+        </is>
+      </c>
+      <c r="AX1" s="1" t="inlineStr">
+        <is>
+          <t>2002-Q1</t>
+        </is>
+      </c>
+      <c r="AY1" s="1" t="inlineStr">
+        <is>
+          <t>2002-Q2</t>
+        </is>
+      </c>
+      <c r="AZ1" s="1" t="inlineStr">
+        <is>
+          <t>2002-Q3</t>
+        </is>
+      </c>
+      <c r="BA1" s="1" t="inlineStr">
+        <is>
+          <t>2002-Q4</t>
+        </is>
+      </c>
+      <c r="BB1" s="1" t="inlineStr">
+        <is>
+          <t>2003-Q1</t>
+        </is>
+      </c>
+      <c r="BC1" s="1" t="inlineStr">
+        <is>
+          <t>2003-Q2</t>
+        </is>
+      </c>
+      <c r="BD1" s="1" t="inlineStr">
+        <is>
+          <t>2003-Q3</t>
+        </is>
+      </c>
+      <c r="BE1" s="1" t="inlineStr">
+        <is>
+          <t>2003-Q4</t>
+        </is>
+      </c>
+      <c r="BF1" s="1" t="inlineStr">
+        <is>
+          <t>2004-Q1</t>
+        </is>
+      </c>
+      <c r="BG1" s="1" t="inlineStr">
+        <is>
+          <t>2004-Q2</t>
+        </is>
+      </c>
+      <c r="BH1" s="1" t="inlineStr">
+        <is>
+          <t>2004-Q3</t>
+        </is>
+      </c>
+      <c r="BI1" s="1" t="inlineStr">
+        <is>
+          <t>2004-Q4</t>
+        </is>
+      </c>
+      <c r="BJ1" s="1" t="inlineStr">
+        <is>
+          <t>2005-Q1</t>
+        </is>
+      </c>
+      <c r="BK1" s="1" t="inlineStr">
+        <is>
+          <t>2005-Q2</t>
+        </is>
+      </c>
+      <c r="BL1" s="1" t="inlineStr">
+        <is>
+          <t>2005-Q3</t>
+        </is>
+      </c>
+      <c r="BM1" s="1" t="inlineStr">
+        <is>
+          <t>2005-Q4</t>
+        </is>
+      </c>
+      <c r="BN1" s="1" t="inlineStr">
+        <is>
+          <t>2006-Q1</t>
+        </is>
+      </c>
+      <c r="BO1" s="1" t="inlineStr">
+        <is>
+          <t>2006-Q2</t>
+        </is>
+      </c>
+      <c r="BP1" s="1" t="inlineStr">
+        <is>
+          <t>2006-Q3</t>
+        </is>
+      </c>
+      <c r="BQ1" s="1" t="inlineStr">
+        <is>
+          <t>2006-Q4</t>
+        </is>
+      </c>
+      <c r="BR1" s="1" t="inlineStr">
+        <is>
+          <t>2007-Q1</t>
+        </is>
+      </c>
+      <c r="BS1" s="1" t="inlineStr">
+        <is>
+          <t>2007-Q2</t>
+        </is>
+      </c>
+      <c r="BT1" s="1" t="inlineStr">
+        <is>
+          <t>2007-Q3</t>
+        </is>
+      </c>
+      <c r="BU1" s="1" t="inlineStr">
+        <is>
+          <t>2007-Q4</t>
+        </is>
+      </c>
+      <c r="BV1" s="1" t="inlineStr">
+        <is>
+          <t>2008-Q1</t>
+        </is>
+      </c>
+      <c r="BW1" s="1" t="inlineStr">
+        <is>
+          <t>2008-Q2</t>
+        </is>
+      </c>
+      <c r="BX1" s="1" t="inlineStr">
+        <is>
+          <t>2008-Q3</t>
+        </is>
+      </c>
+      <c r="BY1" s="1" t="inlineStr">
+        <is>
+          <t>2008-Q4</t>
+        </is>
+      </c>
+      <c r="BZ1" s="1" t="inlineStr">
+        <is>
+          <t>2009-Q1</t>
+        </is>
+      </c>
+      <c r="CA1" s="1" t="inlineStr">
+        <is>
+          <t>2009-Q2</t>
+        </is>
+      </c>
+      <c r="CB1" s="1" t="inlineStr">
+        <is>
+          <t>2009-Q3</t>
+        </is>
+      </c>
+      <c r="CC1" s="1" t="inlineStr">
+        <is>
+          <t>2009-Q4</t>
+        </is>
+      </c>
+      <c r="CD1" s="1" t="inlineStr">
+        <is>
+          <t>2010-Q1</t>
+        </is>
+      </c>
+      <c r="CE1" s="1" t="inlineStr">
+        <is>
+          <t>2010-Q2</t>
+        </is>
+      </c>
+      <c r="CF1" s="1" t="inlineStr">
+        <is>
+          <t>2010-Q3</t>
+        </is>
+      </c>
+      <c r="CG1" s="1" t="inlineStr">
+        <is>
+          <t>2010-Q4</t>
+        </is>
+      </c>
+      <c r="CH1" s="1" t="inlineStr">
+        <is>
+          <t>2011-Q1</t>
+        </is>
+      </c>
+      <c r="CI1" s="1" t="inlineStr">
+        <is>
+          <t>2011-Q2</t>
+        </is>
+      </c>
+      <c r="CJ1" s="1" t="inlineStr">
+        <is>
+          <t>2011-Q3</t>
+        </is>
+      </c>
+      <c r="CK1" s="1" t="inlineStr">
+        <is>
+          <t>2011-Q4</t>
+        </is>
+      </c>
+      <c r="CL1" s="1" t="inlineStr">
+        <is>
+          <t>2012-Q1</t>
+        </is>
+      </c>
+      <c r="CM1" s="1" t="inlineStr">
+        <is>
+          <t>2012-Q2</t>
+        </is>
+      </c>
+      <c r="CN1" s="1" t="inlineStr">
+        <is>
+          <t>2012-Q3</t>
+        </is>
+      </c>
+      <c r="CO1" s="1" t="inlineStr">
+        <is>
+          <t>2012-Q4</t>
+        </is>
+      </c>
+      <c r="CP1" s="1" t="inlineStr">
+        <is>
+          <t>2013-Q1</t>
+        </is>
+      </c>
+      <c r="CQ1" s="1" t="inlineStr">
+        <is>
+          <t>2013-Q2</t>
+        </is>
+      </c>
+      <c r="CR1" s="1" t="inlineStr">
+        <is>
+          <t>2013-Q3</t>
+        </is>
+      </c>
+      <c r="CS1" s="1" t="inlineStr">
+        <is>
+          <t>2013-Q4</t>
+        </is>
+      </c>
+      <c r="CT1" s="1" t="inlineStr">
+        <is>
+          <t>2014-Q1</t>
+        </is>
+      </c>
+      <c r="CU1" s="1" t="inlineStr">
+        <is>
+          <t>2014-Q2</t>
+        </is>
+      </c>
+      <c r="CV1" s="1" t="inlineStr">
+        <is>
+          <t>2014-Q3</t>
+        </is>
+      </c>
+      <c r="CW1" s="1" t="inlineStr">
+        <is>
+          <t>2014-Q4</t>
+        </is>
+      </c>
+      <c r="CX1" s="1" t="inlineStr">
+        <is>
+          <t>2015-Q1</t>
+        </is>
+      </c>
+      <c r="CY1" s="1" t="inlineStr">
+        <is>
+          <t>2015-Q2</t>
+        </is>
+      </c>
+      <c r="CZ1" s="1" t="inlineStr">
+        <is>
+          <t>2015-Q3</t>
+        </is>
+      </c>
+      <c r="DA1" s="1" t="inlineStr">
+        <is>
+          <t>2015-Q4</t>
+        </is>
+      </c>
+      <c r="DB1" s="1" t="inlineStr">
+        <is>
+          <t>2016-Q1</t>
+        </is>
+      </c>
+      <c r="DC1" s="1" t="inlineStr">
+        <is>
+          <t>2016-Q2</t>
+        </is>
+      </c>
+      <c r="DD1" s="1" t="inlineStr">
+        <is>
+          <t>2016-Q3</t>
+        </is>
+      </c>
+      <c r="DE1" s="1" t="inlineStr">
+        <is>
+          <t>2016-Q4</t>
+        </is>
+      </c>
+      <c r="DF1" s="1" t="inlineStr">
+        <is>
+          <t>2017-Q1</t>
+        </is>
+      </c>
+      <c r="DG1" s="1" t="inlineStr">
+        <is>
+          <t>2017-Q2</t>
+        </is>
+      </c>
+      <c r="DH1" s="1" t="inlineStr">
+        <is>
+          <t>2017-Q3</t>
+        </is>
+      </c>
+      <c r="DI1" s="1" t="inlineStr">
+        <is>
+          <t>2017-Q4</t>
+        </is>
+      </c>
+      <c r="DJ1" s="1" t="inlineStr">
+        <is>
+          <t>2018-Q1</t>
+        </is>
+      </c>
+      <c r="DK1" s="1" t="inlineStr">
+        <is>
+          <t>2018-Q2</t>
+        </is>
+      </c>
+      <c r="DL1" s="1" t="inlineStr">
+        <is>
+          <t>2018-Q3</t>
+        </is>
+      </c>
+      <c r="DM1" s="1" t="inlineStr">
+        <is>
+          <t>2018-Q4</t>
+        </is>
+      </c>
+      <c r="DN1" s="1" t="inlineStr">
+        <is>
+          <t>2019-Q1</t>
+        </is>
+      </c>
+      <c r="DO1" s="1" t="inlineStr">
+        <is>
+          <t>2019-Q2</t>
+        </is>
+      </c>
+      <c r="DP1" s="1" t="inlineStr">
+        <is>
+          <t>2019-Q3</t>
+        </is>
+      </c>
+      <c r="DQ1" s="1" t="inlineStr">
+        <is>
+          <t>2019-Q4</t>
+        </is>
+      </c>
+      <c r="DR1" s="1" t="inlineStr">
+        <is>
+          <t>2020-Q1</t>
+        </is>
+      </c>
+      <c r="DS1" s="1" t="inlineStr">
+        <is>
+          <t>2020-Q2</t>
+        </is>
+      </c>
+      <c r="DT1" s="1" t="inlineStr">
+        <is>
+          <t>2020-Q3</t>
+        </is>
+      </c>
+      <c r="DU1" s="1" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="DV1" s="1" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="DW1" s="1" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="DX1" s="1" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="DY1" s="1" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
       </c>
     </row>
-    <row r="2" spans="1:129">
-      <c r="A2" s="1" t="s">
-        <v>128</v>
+    <row r="2">
+      <c r="A2" s="1" t="inlineStr">
+        <is>
+          <t>Interstate</t>
+        </is>
       </c>
       <c r="B2" t="n">
         <v>43872.42415791835</v>
@@ -1542,9 +1399,11 @@
         <v>23346</v>
       </c>
     </row>
-    <row r="3" spans="1:129">
-      <c r="A3" s="1" t="s">
-        <v>129</v>
+    <row r="3">
+      <c r="A3" s="1" t="inlineStr">
+        <is>
+          <t>Other Arterial</t>
+        </is>
       </c>
       <c r="B3" t="n">
         <v>72496.79048127115</v>
@@ -1931,9 +1790,11 @@
         <v>34079</v>
       </c>
     </row>
-    <row r="4" spans="1:129">
-      <c r="A4" s="1" t="s">
-        <v>130</v>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>Other than</t>
+        </is>
       </c>
       <c r="B4" t="n">
         <v>76145.31541539998</v>
@@ -2320,9 +2181,11 @@
         <v>29568</v>
       </c>
     </row>
-    <row r="5" spans="1:129">
-      <c r="A5" s="1" t="s">
-        <v>131</v>
+    <row r="5">
+      <c r="A5" s="1" t="inlineStr">
+        <is>
+          <t>All Systems</t>
+        </is>
       </c>
       <c r="B5" t="n">
         <v>192514.5300545895</v>

--- a/data/BTS/TRPT/TVT_historical - Rural - Quarterly.xlsx
+++ b/data/BTS/TRPT/TVT_historical - Rural - Quarterly.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:DY5"/>
+  <dimension ref="A1:EC5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1007,6 +1007,26 @@
           <t>2021-Q4</t>
         </is>
       </c>
+      <c r="DZ1" s="1" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="EA1" s="1" t="inlineStr">
+        <is>
+          <t>2022-Q2</t>
+        </is>
+      </c>
+      <c r="EB1" s="1" t="inlineStr">
+        <is>
+          <t>2022-Q3</t>
+        </is>
+      </c>
+      <c r="EC1" s="1" t="inlineStr">
+        <is>
+          <t>2022-Q4</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
@@ -1387,16 +1407,28 @@
         <v>59511</v>
       </c>
       <c r="DV2" t="n">
-        <v>54415</v>
+        <v>56594</v>
       </c>
       <c r="DW2" t="n">
-        <v>68070</v>
+        <v>69557</v>
       </c>
       <c r="DX2" t="n">
-        <v>72904</v>
+        <v>73884</v>
       </c>
       <c r="DY2" t="n">
-        <v>23346</v>
+        <v>68827</v>
+      </c>
+      <c r="DZ2" t="n">
+        <v>19020</v>
+      </c>
+      <c r="EA2" t="n">
+        <v>0</v>
+      </c>
+      <c r="EB2" t="n">
+        <v>0</v>
+      </c>
+      <c r="EC2" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -1778,16 +1810,28 @@
         <v>88467</v>
       </c>
       <c r="DV3" t="n">
-        <v>81103</v>
+        <v>84894</v>
       </c>
       <c r="DW3" t="n">
-        <v>98589</v>
+        <v>101661</v>
       </c>
       <c r="DX3" t="n">
-        <v>103855</v>
+        <v>106250</v>
       </c>
       <c r="DY3" t="n">
-        <v>34079</v>
+        <v>98558</v>
+      </c>
+      <c r="DZ3" t="n">
+        <v>28053</v>
+      </c>
+      <c r="EA3" t="n">
+        <v>0</v>
+      </c>
+      <c r="EB3" t="n">
+        <v>0</v>
+      </c>
+      <c r="EC3" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -2169,16 +2213,28 @@
         <v>77402</v>
       </c>
       <c r="DV4" t="n">
-        <v>72256</v>
+        <v>75140</v>
       </c>
       <c r="DW4" t="n">
-        <v>88215</v>
+        <v>91269</v>
       </c>
       <c r="DX4" t="n">
-        <v>90163</v>
+        <v>95685</v>
       </c>
       <c r="DY4" t="n">
-        <v>29568</v>
+        <v>87207</v>
+      </c>
+      <c r="DZ4" t="n">
+        <v>24755</v>
+      </c>
+      <c r="EA4" t="n">
+        <v>0</v>
+      </c>
+      <c r="EB4" t="n">
+        <v>0</v>
+      </c>
+      <c r="EC4" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -2560,16 +2616,28 @@
         <v>225380</v>
       </c>
       <c r="DV5" t="n">
-        <v>207774</v>
+        <v>216627</v>
       </c>
       <c r="DW5" t="n">
-        <v>254873</v>
+        <v>262486</v>
       </c>
       <c r="DX5" t="n">
-        <v>266922</v>
+        <v>275819</v>
       </c>
       <c r="DY5" t="n">
-        <v>86993</v>
+        <v>254592</v>
+      </c>
+      <c r="DZ5" t="n">
+        <v>71828</v>
+      </c>
+      <c r="EA5" t="n">
+        <v>0</v>
+      </c>
+      <c r="EB5" t="n">
+        <v>0</v>
+      </c>
+      <c r="EC5" t="n">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
